--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870E03DD-038C-4BC6-B4F0-A96C0758940A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B450C9-99A4-4A31-B14D-7D4E44D65407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="210">
   <si>
     <t>clause</t>
   </si>
@@ -642,6 +642,18 @@
   </si>
   <si>
     <t>MASKCOVID  - Seguimento</t>
+  </si>
+  <si>
+    <t>MASKINCL</t>
+  </si>
+  <si>
+    <t>MASKCOVID - Inclusion</t>
+  </si>
+  <si>
+    <t>MASKCOVID  - Inclusão</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('MASKINCL')</t>
   </si>
 </sst>
 </file>
@@ -1148,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,6 +1202,20 @@
         <v>205</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1199,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,8 +1326,26 @@
         <v>189</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
@@ -1327,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
